--- a/06_Energia/06 Energía.xlsx
+++ b/06_Energia/06 Energía.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCCS\01_Dmine\06_Energia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17850" windowHeight="2025"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Plantilla" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Ej. Aire" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Referencias" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Parámetros disponibles" sheetId="4" r:id="rId6"/>
+    <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
+    <sheet name="Ej. Aire" sheetId="2" r:id="rId2"/>
+    <sheet name="Referencias" sheetId="3" r:id="rId3"/>
+    <sheet name="Parámetros disponibles" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B5">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Agua: AG
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Agua: AG
 Aire: AI
 Uso de Suelo: US
 Industria: IN
@@ -31,54 +45,111 @@
 Bienes y Servicios Ambientales: BS
 Habitabilidad: HA
 Residuos Sólidos Urbanos: RE</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B14">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Propiedad que puede ser medida u observada</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Propiedad que puede ser medida u observada</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F14">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Fuente oficial
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Fuente oficial
 Autores
 Publicación 
 Liga para descarga de datos o consulta</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="K14">
+    <comment ref="K14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Cada indicador se construye a partir de uno o varios parámetros. 
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Cada indicador se construye a partir de uno o varios parámetros. 
 Para asginar el nombre:
 Clave.número consecutivo
 Ej. AI.01, AI.02, AI.03, AI.n</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="M14">
+    <comment ref="M14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Consultor6:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Consultor6:
 Método de cálculo del indicador.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="N14">
+    <comment ref="N14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Y fuente de justificación. </t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Y fuente de justificación. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G15">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Detalllar si el parámetro se encuentra por localidad, ciudad, entidad, etc. </t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Detalllar si el parámetro se encuentra por localidad, ciudad, entidad, etc. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H15">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Incluir periodicidad de actualización de información
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Incluir periodicidad de actualización de información
 Año más reciente disponible,.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="U15">
+    <comment ref="U15" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">¿Cómo se asgina la calificación?</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>¿Cómo se asgina la calificación?</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -86,14 +157,20 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B5">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Agua: AG
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Agua: AG
 Aire: AI
 Uso de Suelo: US
 Industria: IN
@@ -103,51 +180,108 @@
 Bienes y Servicios Ambientales: BS
 Habitabilidad: HA
 Residuos Sólidos Urbanos: RE</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B14">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Propiedad que puede ser medida u observada</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Propiedad que puede ser medida u observada</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F14">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Fuente oficial
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Fuente oficial
 Autores
 Publicación 
 Liga para descarga de datos o consulta</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="K14">
+    <comment ref="K14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Indicador: parámetro o un valor derivado de varios parámetros que apunta o provee mayor información sobre la dimensión  que el parámetro por sí solo. 
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Indicador: parámetro o un valor derivado de varios parámetros que apunta o provee mayor información sobre la dimensión  que el parámetro por sí solo. 
 Clave.número consecutivo
 Ej. AI.01, AI.02, AI.03, AI.n</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="M14">
+    <comment ref="M14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Método de cálculo del indicador a partir de los parámetros descritos.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Método de cálculo del indicador a partir de los parámetros descritos.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="N14">
+    <comment ref="N14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Incluir fuente de justificación. </t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Incluir fuente de justificación. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G15">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Detalllar si el parámetro se encuentra por localidad, ciudad, entidad, etc. </t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Detalllar si el parámetro se encuentra por localidad, ciudad, entidad, etc. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H15">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Incluir periodicidad de actualización de información y último periodo (por ejemplo, año) disponible.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Incluir periodicidad de actualización de información y último periodo (por ejemplo, año) disponible.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="U15">
+    <comment ref="U15" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Propuesta de cómo se asgina la calificación.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Propuesta de cómo se asgina la calificación.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -155,32 +289,60 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B4">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Propiedad que puede ser medida u observada</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Propiedad que puede ser medida u observada</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Fuente oficial
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Fuente oficial
 Autores
 Publicación 
 Liga para descarga de datos o consulta</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G5">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Detalllar si el parámetro se encuentra pro localidad, ciudad, entidad, etc. </t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Detalllar si el parámetro se encuentra pro localidad, ciudad, entidad, etc. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H5">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Incluir periodicidad de actualización de información</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Incluir periodicidad de actualización de información</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -245,21 +407,20 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Estado que guarda el aire </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t>atmosférico en el entorno en función de contaminantes con efectos negativos e</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>n la salud humana. De acuerdo con la Organización Mundial de la Salud (2014), la contaminación de la atmósfera representa un grave riesgo medioambiental en todos los países.</t>
     </r>
@@ -385,22 +546,21 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t>Se refiere a la concentración de las partículas suspendidas con diámetro aerodinámico igual o inferior a los 10 µm (PM10) medida en microgramos por metro cúbico (μg/m</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t>).
 Las partículas suspendidas representan el material respirable presente en la atmósfera en forma sólida o líquida (polvo, cenizas, hollín, partículas metálicas, cemento y polen, entre otras). De acuerdo con su tamaño se pueden dividir en dos grupos principales: las de diámetro aerodinámico igual o inferior a los 10 µm (PM10) y las de fracción respirable más pequeña (PM2.5). Surgen de fuentes naturales (sal de los océanos o cenizas volcánicas) y antropogénicas generadas, principalmente, por las industrias y los vehículos (SEMARNAT, 2013).</t>
@@ -564,16 +724,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Es el cociente que resulta de dividir el número de viviendas que tienen energía eléctrica entre las viviendas totales de cada ciudad
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN01=P0601/P0309
 P0601= Viviendas particulares habitadas con electricidad
@@ -604,7 +763,6 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">La evidencia sobre material particulado en el aire y su impacto en la salud pública consistentemente muestra efectos negativos para la salud en las exposiciones que experimentan actualmente las poblaciones urbanas tanto de los países desarrollados como en desarrollo. El material particulado plantea un problema para la salud porque se puede inhalar y
 así acumularse en el sistema respiratorio.  
 Por esta razón, se considera que la distribución de días con calidad del aire buena, regular y mala, es un buen indicativo para calificar la sustentabilidad de una ciudad bajo la dimensión de Aire.
@@ -612,8 +770,8 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">
 Fuente: NOM-025-SSA1-2014</t>
@@ -688,17 +846,16 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">La electricidad generada a partir de fuentes renovables de energía se obtiene del INERE. El consumo eléctrico es de CFE.
 El cociente resultante, indica la proporción de electricidad generada a partir de fuentes renovables de energía, en relación con el consumo eléctrico del sector. Un cociente 1, indicaría que el municipio es capaz de generar, mediante fuentes renovables, la cantidad de electricidad que consume.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN02=P0606/P0609
 P0606= Generación mediante fuentes renovables
@@ -734,16 +891,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Se suma la electricidad generada mediante fuentes renovables de energía, y se divide entre la suma del potencial de las fuentes renovables existentes en el municipio. El cociente resultante, indica la proporción de electricidad generada a partir de fuentes renovables de energía, en relación con el potencial aprovechable. Para normalizar dicho cociente, se divide entre la superficie de la ciudad.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN03=P0606/P0607
 P0606= Generación mediante fuentes renovables
@@ -773,17 +929,16 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">División de la generación eléctrica a partir de fuentes renovables, entre la capacidad instalada de las mismas.
 El cociente resultante indica cuanta electricicdad de fuentes renovables se genera, por cada MW instalado de fuentes renovables de energía. Podría definirse como el grado de aprovechamiento de la capacidad instalada.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN04=P0606/P0608
 P0606= Generación mediante fuentes renovables
@@ -813,16 +968,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Cociente que resulta de dividir el número de usuarios eléctricos entre la población total de la localidad
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN05=P0609/P0001
 P0609= Usuarios eléctricos
@@ -858,16 +1012,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Este indicador es resultado de dividir las ventas eléctricas totales entre la población de cada ciudad
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN06=P0610/P0001
 P0610= Ventas de electricidad
@@ -900,16 +1053,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Resultado de dividir el número de viviendas que utilizan leña o carbón para cocinar alimentos, entre el número de viviendas totales de la ciudad.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN07=P0611/P0309
 P0611= Viviendas que utilizan leña o carbón para cocinar
@@ -942,16 +1094,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Resultado de dividir el número de viviendas que utilizan leña o carbón para cocinar alimentos y cuentan con estufa o fogón con chimenea, entre el número de viviendas que utilizan carbón o leña para cocinar
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN08=P0612/P0611
 P0612= Viviendas que utilizan leña o carbón para cocinar, que disponen de estufa o fogón con chimenea.
@@ -985,16 +1136,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Cociente que resulta de dividir el número de viviendas que utilizan gas para cocinar alimentos, entre el número de viviendas habitadas de la ciudad
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN09=P0613/P0309
 P0613= Viviendas que utilizan gas para cocinar
@@ -1031,16 +1181,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Cociente que resulta de dividir el número de viviendas con focos ahorradores, entre las viviendas totales de la ciudad
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN10=P0602/P0309
 P0602= Viviendas particulares habitadas con focos ahorradores
@@ -1070,16 +1219,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Este indicador es resultado de dividir las ventas eléctricas totales entre el PIB de cada ciudad.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN11=P0610/P0614
 P0610= Ventas de electricidad
@@ -1109,16 +1257,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Cociente que resulta de dividir las viviendas con calentadores solares de agua existentes en la ciudad, entre el total de viviendas con calentadores de agua (boilers, como aparece en las estadísticas)
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">EN12=P0604/P0603
 P0604= Viviendas particulares habitadas con calentador solar
@@ -1145,16 +1292,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Cociente que resulta de dividir el número de viviendas con páneles solares, entre el número de usuarios eléctricos de la ciudad.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>EN13=P0605/P0609
 P0605= Viviendas particulares habitadas con panel fotovoltaico
@@ -1226,55 +1372,58 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF70AD47"/>
       <name val="Soberana sans"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color rgb="FF70AD47"/>
       <name val="Soberana sans"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -1284,7 +1433,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1312,41 +1461,39 @@
     </fill>
   </fills>
   <borders count="17">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1356,6 +1503,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1367,79 +1515,130 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -1447,201 +1646,260 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="70">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2590800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3082" name="Text Box 10" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1655,9 +1913,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1781175</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1674,7 +1938,7 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="0" lIns="0" rIns="0" wrap="square" tIns="0">
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -1686,7 +1950,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -1702,1165 +1966,1553 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2058" name="Text Box 10" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="Text Box 5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.71"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="12.71"/>
-    <col customWidth="1" min="4" max="5" width="20.71"/>
-    <col customWidth="1" min="6" max="6" width="31.43"/>
-    <col customWidth="1" min="7" max="8" width="40.71"/>
-    <col customWidth="1" min="9" max="9" width="20.71"/>
-    <col customWidth="1" min="10" max="10" width="6.71"/>
-    <col customWidth="1" min="11" max="11" width="15.71"/>
-    <col customWidth="1" min="12" max="12" width="30.86"/>
-    <col customWidth="1" min="13" max="13" width="47.0"/>
-    <col customWidth="1" min="14" max="14" width="40.71"/>
-    <col customWidth="1" min="15" max="20" width="15.71"/>
-    <col customWidth="1" min="21" max="21" width="60.71"/>
-    <col customWidth="1" min="22" max="22" width="40.71"/>
-    <col customWidth="1" min="23" max="26" width="10.71"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="13" max="13" width="47" customWidth="1"/>
+    <col min="14" max="14" width="40.7109375" customWidth="1"/>
+    <col min="15" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="60.7109375" customWidth="1"/>
+    <col min="22" max="22" width="40.7109375" customWidth="1"/>
+    <col min="23" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="7" t="s">
+    <row r="1" spans="1:26" ht="28.5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="23.25">
+      <c r="B4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" ht="21.0" customHeight="1">
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:26" ht="21" customHeight="1">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="12" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1">
+      <c r="B6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="13" spans="1:26" ht="21" customHeight="1">
+      <c r="A13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
-      <c r="K13" s="7" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="40"/>
+      <c r="K13" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="27"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="28" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="50"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75">
+      <c r="A14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="28" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="28" t="s">
+      <c r="H14" s="40"/>
+      <c r="I14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="28" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="28" t="s">
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="32" t="s">
+    <row r="15" spans="1:26" ht="18.75">
+      <c r="A15" s="42"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="10" t="s">
+      <c r="I15" s="42"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="6" t="s">
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="V15" s="22"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="40" t="s">
+      <c r="V15" s="42"/>
+    </row>
+    <row r="16" spans="1:26" ht="102">
+      <c r="A16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="44" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="46" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="40" t="s">
+      <c r="J16" s="21"/>
+      <c r="K16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="51" t="s">
+      <c r="L16" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="M16" s="53" t="s">
+      <c r="M16" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="N16" s="53" t="s">
+      <c r="N16" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="O16" s="55" t="s">
+      <c r="O16" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="40" t="s">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+    </row>
+    <row r="17" spans="1:26" ht="178.5">
+      <c r="A17" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="44" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="57" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J17" s="50"/>
-      <c r="K17" s="58" t="s">
+      <c r="J17" s="21"/>
+      <c r="K17" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="L17" s="53" t="s">
+      <c r="L17" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="53" t="s">
+      <c r="M17" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="O17" s="59" t="s">
+      <c r="O17" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="P17" s="59" t="s">
+      <c r="P17" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="50"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="40" t="s">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+    </row>
+    <row r="18" spans="1:26" ht="165.75">
+      <c r="A18" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="44" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="47" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="40" t="s">
+      <c r="J18" s="31"/>
+      <c r="K18" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="L18" s="51" t="s">
+      <c r="L18" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M18" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="N18" s="51" t="s">
+      <c r="N18" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="O18" s="47" t="s">
+      <c r="O18" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="P18" s="55" t="s">
+      <c r="P18" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="40" t="s">
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+    </row>
+    <row r="19" spans="1:26" ht="153">
+      <c r="A19" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="44" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="57" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="55" t="s">
+      <c r="H19" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="40" t="s">
+      <c r="J19" s="31"/>
+      <c r="K19" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="L19" s="51" t="s">
+      <c r="L19" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="M19" s="51" t="s">
+      <c r="M19" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="N19" s="51" t="s">
+      <c r="N19" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="O19" s="55" t="s">
+      <c r="O19" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="P19" s="55" t="s">
+      <c r="P19" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="40" t="s">
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+    </row>
+    <row r="20" spans="1:26" ht="89.25">
+      <c r="A20" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="44" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="57" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H20" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="40" t="s">
+      <c r="J20" s="31"/>
+      <c r="K20" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="L20" s="51" t="s">
+      <c r="L20" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="M20" s="51" t="s">
+      <c r="M20" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="N20" s="51" t="s">
+      <c r="N20" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="O20" s="55" t="s">
+      <c r="O20" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="P20" s="55" t="s">
+      <c r="P20" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="50"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="40" t="s">
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+    </row>
+    <row r="21" spans="1:26" ht="89.25">
+      <c r="A21" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="44" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="47" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="40" t="s">
+      <c r="J21" s="31"/>
+      <c r="K21" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="L21" s="51" t="s">
+      <c r="L21" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="M21" s="51" t="s">
+      <c r="M21" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="N21" s="51" t="s">
+      <c r="N21" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="O21" s="55" t="s">
+      <c r="O21" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="P21" s="55" t="s">
+      <c r="P21" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="40" t="s">
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+    </row>
+    <row r="22" spans="1:26" ht="102">
+      <c r="A22" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="44" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="47" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="40" t="s">
+      <c r="J22" s="31"/>
+      <c r="K22" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="L22" s="51" t="s">
+      <c r="L22" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="M22" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="N22" s="51" t="s">
+      <c r="N22" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="O22" s="47" t="s">
+      <c r="O22" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="P22" s="55" t="s">
+      <c r="P22" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="40" t="s">
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+    </row>
+    <row r="23" spans="1:26" ht="127.5">
+      <c r="A23" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="44" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="47" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="40" t="s">
+      <c r="J23" s="31"/>
+      <c r="K23" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="L23" s="51" t="s">
+      <c r="L23" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="M23" s="51" t="s">
+      <c r="M23" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="N23" s="51" t="s">
+      <c r="N23" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="O23" s="47" t="s">
+      <c r="O23" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="P23" s="55" t="s">
+      <c r="P23" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="40" t="s">
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+    </row>
+    <row r="24" spans="1:26" ht="102">
+      <c r="A24" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="44" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="47" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H24" s="47" t="s">
+      <c r="H24" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J24" s="50"/>
-      <c r="K24" s="40" t="s">
+      <c r="J24" s="21"/>
+      <c r="K24" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="L24" s="51" t="s">
+      <c r="L24" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="M24" s="51" t="s">
+      <c r="M24" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="N24" s="51" t="s">
+      <c r="N24" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="O24" s="55" t="s">
+      <c r="O24" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="P24" s="55" t="s">
+      <c r="P24" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="40" t="s">
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+    </row>
+    <row r="25" spans="1:26" ht="114.75">
+      <c r="A25" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="47" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="I25" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="40" t="s">
+      <c r="J25" s="21"/>
+      <c r="K25" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="L25" s="51" t="s">
+      <c r="L25" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="M25" s="51" t="s">
+      <c r="M25" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="N25" s="51" t="s">
+      <c r="N25" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="O25" s="47" t="s">
+      <c r="O25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="P25" s="55" t="s">
+      <c r="P25" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="50"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="40" t="s">
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+    </row>
+    <row r="26" spans="1:26" ht="89.25">
+      <c r="A26" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="44" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="47" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="55" t="s">
+      <c r="H26" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="40" t="s">
+      <c r="J26" s="21"/>
+      <c r="K26" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="M26" s="51" t="s">
+      <c r="M26" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="N26" s="51" t="s">
+      <c r="N26" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="O26" s="55" t="s">
+      <c r="O26" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="P26" s="55" t="s">
+      <c r="P26" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="50"/>
-      <c r="Z26" s="50"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="40" t="s">
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+    </row>
+    <row r="27" spans="1:26" ht="140.25">
+      <c r="A27" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="44" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="47" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="40" t="s">
+      <c r="J27" s="21"/>
+      <c r="K27" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="L27" s="63" t="s">
+      <c r="L27" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="M27" s="51" t="s">
+      <c r="M27" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="N27" s="51" t="s">
+      <c r="N27" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="O27" s="55" t="s">
+      <c r="O27" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="P27" s="55" t="s">
+      <c r="P27" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="50"/>
-      <c r="Z27" s="50"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="40" t="s">
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+    </row>
+    <row r="28" spans="1:26" ht="114.75">
+      <c r="A28" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="44" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="47" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="40" t="s">
+      <c r="J28" s="21"/>
+      <c r="K28" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="L28" s="51" t="s">
+      <c r="L28" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="M28" s="51" t="s">
+      <c r="M28" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="N28" s="51" t="s">
+      <c r="N28" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="O28" s="55" t="s">
+      <c r="O28" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="P28" s="55" t="s">
+      <c r="P28" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="50"/>
-      <c r="Z28" s="50"/>
-    </row>
-    <row r="29" ht="49.5" customHeight="1">
-      <c r="A29" s="40" t="s">
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+    </row>
+    <row r="29" spans="1:26" ht="49.5" customHeight="1">
+      <c r="A29" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="44" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="64" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="I29" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="J29" s="50"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-    </row>
-    <row r="30" ht="49.5" customHeight="1">
-      <c r="A30" s="40" t="s">
+      <c r="J29" s="21"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="21"/>
+      <c r="Z29" s="21"/>
+    </row>
+    <row r="30" spans="1:26" ht="49.5" customHeight="1">
+      <c r="A30" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="44" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="47" t="s">
+      <c r="E30" s="40"/>
+      <c r="F30" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-    </row>
-    <row r="31" ht="49.5" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+    </row>
+    <row r="31" spans="1:26" ht="49.5" customHeight="1">
+      <c r="A31" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="44" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="47" t="s">
+      <c r="E31" s="40"/>
+      <c r="F31" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="50"/>
-      <c r="Y31" s="50"/>
-      <c r="Z31" s="50"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="67" t="s">
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+    </row>
+    <row r="32" spans="1:26" ht="63.75">
+      <c r="A32" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="44" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="68" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="G32" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="H32" s="47">
-        <v>2010.0</v>
-      </c>
-      <c r="I32" s="55" t="s">
+      <c r="H32" s="19">
+        <v>2010</v>
+      </c>
+      <c r="I32" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="K32" s="60"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-    </row>
-    <row r="33">
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-    </row>
-    <row r="34">
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-    </row>
-    <row r="35">
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="11:22">
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+    </row>
+    <row r="34" spans="11:22">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+    </row>
+    <row r="35" spans="11:22">
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="K13:V13"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:H10"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B17:C17"/>
@@ -2872,471 +3524,482 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:H10"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="K13:V13"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.71"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="12.71"/>
-    <col customWidth="1" min="4" max="6" width="20.71"/>
-    <col customWidth="1" min="7" max="8" width="40.71"/>
-    <col customWidth="1" min="9" max="9" width="20.71"/>
-    <col customWidth="1" min="10" max="10" width="6.71"/>
-    <col customWidth="1" min="11" max="11" width="15.71"/>
-    <col customWidth="1" min="12" max="12" width="20.71"/>
-    <col customWidth="1" min="13" max="14" width="40.71"/>
-    <col customWidth="1" min="15" max="20" width="15.71"/>
-    <col customWidth="1" min="21" max="21" width="60.71"/>
-    <col customWidth="1" min="22" max="22" width="40.71"/>
-    <col customWidth="1" min="23" max="26" width="10.71"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="14" width="40.7109375" customWidth="1"/>
+    <col min="15" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="60.7109375" customWidth="1"/>
+    <col min="22" max="22" width="40.7109375" customWidth="1"/>
+    <col min="23" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="7" t="s">
+    <row r="1" spans="2:22" ht="28.5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="4" spans="2:22" ht="23.25">
+      <c r="B4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" ht="21.0" customHeight="1">
-      <c r="B5" s="6" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="2:22" ht="21" customHeight="1">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="12" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B6" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="20"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="13" ht="21.0" customHeight="1">
-      <c r="B13" s="1" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="2:22" ht="15" customHeight="1">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="2:22" ht="15" customHeight="1">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="2:22" ht="15" customHeight="1">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="13" spans="2:22" ht="21" customHeight="1">
+      <c r="B13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="5"/>
-      <c r="K13" s="7" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="40"/>
+      <c r="K13" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="27"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="29" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="50"/>
+    </row>
+    <row r="14" spans="2:22" ht="18.75">
+      <c r="B14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="28" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="28" t="s">
+      <c r="H14" s="40"/>
+      <c r="I14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="28" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="L14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="33" t="s">
+      <c r="O14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="28" t="s">
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="32" t="s">
+    <row r="15" spans="2:22" ht="18.75">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="10" t="s">
+      <c r="I15" s="42"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="6" t="s">
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="V15" s="22"/>
-    </row>
-    <row r="16" ht="364.5" customHeight="1">
-      <c r="B16" s="34" t="s">
+      <c r="V15" s="42"/>
+    </row>
+    <row r="16" spans="2:22" ht="364.5" customHeight="1">
+      <c r="B16" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="11" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L16" s="48" t="s">
+      <c r="L16" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="54" t="s">
+      <c r="M16" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="Q16" s="38" t="s">
+      <c r="Q16" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="R16" s="38" t="s">
+      <c r="R16" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="S16" s="38" t="s">
+      <c r="S16" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="T16" s="38" t="s">
+      <c r="T16" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="U16" s="38" t="s">
+      <c r="U16" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="56"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="66"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="K17" s="11" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="K17" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="56"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="K18" s="11" t="s">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="66"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="K18" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="56"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="K19" s="11" t="s">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="66"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="K19" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="56"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="K20" s="11" t="s">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="66"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="K20" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="56"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="K21" s="11" t="s">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="66"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="K21" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-    </row>
-    <row r="24">
-      <c r="K24" s="60"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-    </row>
-    <row r="25">
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-    </row>
-    <row r="26">
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-    </row>
-    <row r="27">
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="K24" s="30"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="Q14:U14"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="K13:V13"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="D6:H10"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
@@ -3349,579 +4012,625 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="D6:H10"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="Q15:T15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="K13:V13"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.71"/>
-    <col customWidth="1" min="3" max="3" width="167.43"/>
-    <col customWidth="1" min="4" max="26" width="10.71"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="167.42578125" customWidth="1"/>
+    <col min="4" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="40"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.71"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="12.71"/>
-    <col customWidth="1" min="4" max="6" width="20.71"/>
-    <col customWidth="1" min="7" max="8" width="40.71"/>
-    <col customWidth="1" min="9" max="9" width="20.71"/>
-    <col customWidth="1" min="10" max="10" width="6.71"/>
-    <col customWidth="1" min="11" max="26" width="10.71"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="3" ht="21.0" customHeight="1">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="2:10" ht="28.5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="3" spans="2:10" ht="21" customHeight="1">
+      <c r="B3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="29" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="2:10" ht="18.75">
+      <c r="B4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="28" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="28" t="s">
+      <c r="H4" s="40"/>
+      <c r="I4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="32" t="s">
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="2:10" ht="18.75">
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="34" t="s">
+      <c r="I5" s="42"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="2:10" ht="120">
+      <c r="B6" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="34" t="s">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" ht="75">
+      <c r="B7" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="34" t="s">
+    <row r="8" spans="2:10" ht="120">
+      <c r="B8" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="16" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="11">
-        <v>2010.0</v>
-      </c>
-      <c r="I8" s="38" t="s">
+      <c r="H8" s="6">
+        <v>2010</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="41" t="s">
+    <row r="9" spans="2:10" ht="45">
+      <c r="B9" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="38" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="41" t="s">
+    <row r="10" spans="2:10" ht="45">
+      <c r="B10" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="38" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="41" t="s">
+    <row r="11" spans="2:10" ht="45">
+      <c r="B11" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="40"/>
+      <c r="D11" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="38" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="2:10" ht="45">
+      <c r="B12" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="45" t="s">
+      <c r="E12" s="50"/>
+      <c r="F12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="11">
-        <v>2010.0</v>
-      </c>
-      <c r="I12" s="38" t="s">
+      <c r="H12" s="6">
+        <v>2010</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="34" t="s">
+    <row r="13" spans="2:10" ht="30">
+      <c r="B13" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="37" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="34" t="s">
+    <row r="14" spans="2:10" ht="105">
+      <c r="B14" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="38" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="34" t="s">
+    <row r="15" spans="2:10" ht="105">
+      <c r="B15" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="16" t="s">
+      <c r="E15" s="50"/>
+      <c r="F15" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="38" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="34" t="s">
+    <row r="16" spans="2:10" ht="105">
+      <c r="B16" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="50"/>
+      <c r="F16" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="38" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="34" t="s">
+    <row r="17" spans="2:9" ht="105">
+      <c r="B17" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="16" t="s">
+      <c r="E17" s="50"/>
+      <c r="F17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="38" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="41" t="s">
+    <row r="18" spans="2:9" ht="135">
+      <c r="B18" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="16" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" ht="44.25" customHeight="1">
-      <c r="B19" s="41" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="2:9" ht="44.25" customHeight="1">
+      <c r="B19" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="49" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="52" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="38" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" ht="223.5" customHeight="1">
-      <c r="B20" s="34" t="s">
+    <row r="20" spans="2:9" ht="223.5" customHeight="1">
+      <c r="B20" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="36" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="43" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="13" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="B3:I3"/>
@@ -3930,36 +4639,9 @@
     <mergeCell ref="D4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>